--- a/biology/Zoologie/Cypricardinia/Cypricardinia.xlsx
+++ b/biology/Zoologie/Cypricardinia/Cypricardinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypricardinia est un genre fossile de mollusques bivalves de la famille des Cardiniidae.
 </t>
@@ -511,22 +523,24 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (27 octobre 2019)[2]:
-Cypricardinia borealica Muromtseva, 1984[3] - Permien de Russie
-Cypricardinia contracta Girty, 1909[4] - Texas, USA
-Cypricardinia dalecarlica Isberg, 1934[5] - Ordovicien de Suède
-Cypricardinia eopermica Biakov, 2005[6] - Permien de Russie
-Cypricardinia fayettevillensis Girty, 1910[7] - Carbonifère de l'Arkansas, USA
-Cypricardinia fossa Campbell &amp; Engel, 1963[8] - Carbonifère de l'Australie
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (27 octobre 2019):
+Cypricardinia borealica Muromtseva, 1984 - Permien de Russie
+Cypricardinia contracta Girty, 1909 - Texas, USA
+Cypricardinia dalecarlica Isberg, 1934 - Ordovicien de Suède
+Cypricardinia eopermica Biakov, 2005 - Permien de Russie
+Cypricardinia fayettevillensis Girty, 1910 - Carbonifère de l'Arkansas, USA
+Cypricardinia fossa Campbell &amp; Engel, 1963 - Carbonifère de l'Australie
 Cypricardinia indenta Conrad, 1842 (syn. Cypricardites indenta) - Dévonien des USA
-Cypricardinia kallholniensis Isberg, 1934[5] - Ordovicien de Suède
-Cypricardinia mytiliformis Wanner, 1922[9] - Permien d'Indonésie
+Cypricardinia kallholniensis Isberg, 1934 - Ordovicien de Suède
+Cypricardinia mytiliformis Wanner, 1922 - Permien d'Indonésie
 Cypricardinia permica Licharew, 1931 - Permien du Groenland, de Mongolie et de Russie
-Cypricardinia securigera Talent, 1963[10] - Dévonien de l'Australie
+Cypricardinia securigera Talent, 1963 - Dévonien de l'Australie
 Autres noms
-Cypricardinia elegans Clarke &amp; Swartz, 1913[11] - Dévonien du Maryland, USA
+Cypricardinia elegans Clarke &amp; Swartz, 1913 - Dévonien du Maryland, USA
 C. elegans var. angusta Clarke &amp; Swartz</t>
         </is>
       </c>
